--- a/MedicalLink/Templates/BC_108_ChiThuongDVThuVienPhi.xlsx
+++ b/MedicalLink/Templates/BC_108_ChiThuongDVThuVienPhi.xlsx
@@ -145,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,12 +198,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -313,18 +307,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -348,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -674,7 +668,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A7" sqref="A7:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,38 +687,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="12"/>
@@ -735,62 +729,62 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -804,7 +798,7 @@
       <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -816,7 +810,7 @@
       <c r="G8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -829,12 +823,12 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="17">
         <f>SUM(E8:E8)</f>
         <v>0</v>
@@ -865,10 +859,10 @@
       <c r="D11" s="13"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="1" t="s">
         <v>19</v>
       </c>
